--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T17:47:22-03:00</t>
+    <t>2024-09-09T18:39:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T18:39:42-03:00</t>
+    <t>2024-09-10T08:50:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T08:50:18-03:00</t>
+    <t>2025-02-21T13:43:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1536,7 +1536,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:43:19-03:00</t>
+    <t>2025-03-20T08:51:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="582">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Referencia de Documentos</t>
+    <t>Referencia de Documentos: V 0.43</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T08:51:13-03:00</t>
+    <t>2025-03-24T09:32:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -615,7 +615,7 @@
 </t>
   </si>
   <si>
-    <t>Valor fijo : #60591-5</t>
+    <t>Tipo de documento: Ambulatorio; Hospitalario; Urgencias</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
@@ -775,13 +775,16 @@
     <t>DocumentReference.type.coding.code</t>
   </si>
   <si>
+    <t>Corresponde al tipo de documento que se está enviando</t>
+  </si>
+  <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>60591-5</t>
+    <t>https://www.minsalud.gov.co/ihc/fhir/ValueSet/ConjuntoDocumentosVS</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -2166,7 +2169,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.5546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.62109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -4912,7 +4915,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>93</v>
@@ -4930,14 +4933,14 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4947,7 +4950,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>80</v>
@@ -4962,13 +4965,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4986,7 +4987,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5016,7 +5017,7 @@
         <v>80</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>80</v>
@@ -5024,10 +5025,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5053,14 +5054,14 @@
         <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5109,7 +5110,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5130,7 +5131,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5139,7 +5140,7 @@
         <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>80</v>
@@ -5147,10 +5148,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5173,19 +5174,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5234,7 +5235,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5255,7 +5256,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5264,7 +5265,7 @@
         <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>80</v>
@@ -5272,10 +5273,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5301,16 +5302,16 @@
         <v>206</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5359,7 +5360,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5380,7 +5381,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5389,7 +5390,7 @@
         <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>80</v>
@@ -5397,14 +5398,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5426,13 +5427,13 @@
         <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5458,13 +5459,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5482,7 +5483,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5500,13 +5501,13 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>202</v>
@@ -5515,15 +5516,15 @@
         <v>80</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5546,13 +5547,13 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5603,7 +5604,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5618,33 +5619,33 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5762,10 +5763,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5885,10 +5886,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5914,13 +5915,13 @@
         <v>206</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5970,7 +5971,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5979,7 +5980,7 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
@@ -6008,10 +6009,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6037,13 +6038,13 @@
         <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6069,13 +6070,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6093,7 +6094,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6131,10 +6132,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6160,13 +6161,13 @@
         <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6216,7 +6217,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6237,7 +6238,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6254,10 +6255,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6283,13 +6284,13 @@
         <v>206</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6339,7 +6340,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6377,14 +6378,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6403,16 +6404,16 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6462,7 +6463,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6477,19 +6478,19 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6500,10 +6501,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6526,16 +6527,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6585,7 +6586,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6600,33 +6601,33 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6744,10 +6745,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6867,10 +6868,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6896,13 +6897,13 @@
         <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6952,7 +6953,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6961,7 +6962,7 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6990,10 +6991,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7019,13 +7020,13 @@
         <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7051,13 +7052,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7075,7 +7076,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7113,10 +7114,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7142,13 +7143,13 @@
         <v>151</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7198,7 +7199,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7219,7 +7220,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7236,10 +7237,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7265,13 +7266,13 @@
         <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7321,7 +7322,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7359,10 +7360,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7385,16 +7386,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7444,7 +7445,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7459,33 +7460,33 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7508,16 +7509,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7567,7 +7568,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7582,13 +7583,13 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7605,10 +7606,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7726,10 +7727,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7849,10 +7850,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7878,13 +7879,13 @@
         <v>206</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7934,7 +7935,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7943,7 +7944,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -7972,10 +7973,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8001,13 +8002,13 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8033,13 +8034,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -8057,7 +8058,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8095,10 +8096,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8124,13 +8125,13 @@
         <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8180,7 +8181,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8201,7 +8202,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8218,10 +8219,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8247,13 +8248,13 @@
         <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8303,7 +8304,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8341,10 +8342,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8367,16 +8368,16 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8426,7 +8427,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8444,10 +8445,10 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8459,15 +8460,15 @@
         <v>80</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8585,10 +8586,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8708,14 +8709,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8737,10 +8738,10 @@
         <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>142</v>
@@ -8795,7 +8796,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8833,10 +8834,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8862,13 +8863,13 @@
         <v>113</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8897,10 +8898,10 @@
         <v>174</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8918,7 +8919,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>93</v>
@@ -8936,10 +8937,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8951,15 +8952,15 @@
         <v>80</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8982,13 +8983,13 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9039,7 +9040,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>93</v>
@@ -9057,10 +9058,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -9072,15 +9073,15 @@
         <v>80</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9106,16 +9107,16 @@
         <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9164,7 +9165,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9185,7 +9186,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9194,18 +9195,18 @@
         <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9231,16 +9232,16 @@
         <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9265,13 +9266,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -9289,7 +9290,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9307,30 +9308,30 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9353,13 +9354,13 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9410,7 +9411,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>93</v>
@@ -9428,10 +9429,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9448,10 +9449,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9569,10 +9570,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9692,14 +9693,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9721,10 +9722,10 @@
         <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>142</v>
@@ -9779,7 +9780,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9817,10 +9818,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9843,13 +9844,13 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9900,7 +9901,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>93</v>
@@ -9918,30 +9919,30 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10059,10 +10060,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10182,10 +10183,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10211,14 +10212,14 @@
         <v>113</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10231,7 +10232,7 @@
         <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>80</v>
@@ -10246,10 +10247,10 @@
         <v>174</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10267,7 +10268,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10288,7 +10289,7 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10297,7 +10298,7 @@
         <v>80</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>80</v>
@@ -10305,10 +10306,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10334,14 +10335,14 @@
         <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10354,7 +10355,7 @@
         <v>80</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>80</v>
@@ -10390,7 +10391,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10411,7 +10412,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10428,10 +10429,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10454,19 +10455,19 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10515,7 +10516,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10536,7 +10537,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10545,7 +10546,7 @@
         <v>80</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>80</v>
@@ -10553,10 +10554,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10579,19 +10580,19 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10604,7 +10605,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>80</v>
@@ -10640,7 +10641,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10661,7 +10662,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10670,7 +10671,7 @@
         <v>80</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>80</v>
@@ -10678,10 +10679,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10704,19 +10705,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10765,7 +10766,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10786,7 +10787,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10803,10 +10804,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10829,19 +10830,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10890,7 +10891,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10911,7 +10912,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10928,10 +10929,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10957,14 +10958,14 @@
         <v>206</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10977,7 +10978,7 @@
         <v>80</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>80</v>
@@ -11013,7 +11014,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11034,7 +11035,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -11051,10 +11052,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11077,17 +11078,17 @@
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11136,7 +11137,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11157,7 +11158,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -11174,10 +11175,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11203,13 +11204,13 @@
         <v>218</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11238,10 +11239,10 @@
         <v>117</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -11259,7 +11260,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11277,13 +11278,13 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11292,15 +11293,15 @@
         <v>80</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11323,16 +11324,16 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11382,7 +11383,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11403,7 +11404,7 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11420,10 +11421,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11541,10 +11542,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11664,14 +11665,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11693,10 +11694,10 @@
         <v>139</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>142</v>
@@ -11751,7 +11752,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11789,10 +11790,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11815,13 +11816,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11872,7 +11873,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11887,19 +11888,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>80</v>
@@ -11910,10 +11911,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11939,13 +11940,13 @@
         <v>192</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11971,13 +11972,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11995,7 +11996,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12013,10 +12014,10 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -12028,15 +12029,15 @@
         <v>80</v>
       </c>
       <c r="AQ80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12059,13 +12060,13 @@
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12116,7 +12117,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12134,13 +12135,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12149,15 +12150,15 @@
         <v>80</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12183,10 +12184,10 @@
         <v>192</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12213,13 +12214,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12237,7 +12238,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12255,13 +12256,13 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12270,15 +12271,15 @@
         <v>80</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12304,16 +12305,16 @@
         <v>192</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12338,13 +12339,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12362,7 +12363,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12380,14 +12381,14 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AN83" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12395,15 +12396,15 @@
         <v>80</v>
       </c>
       <c r="AQ83" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12426,13 +12427,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12483,7 +12484,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12501,13 +12502,13 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12516,15 +12517,15 @@
         <v>80</v>
       </c>
       <c r="AQ84" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12547,16 +12548,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12606,7 +12607,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12624,13 +12625,13 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12639,7 +12640,7 @@
         <v>80</v>
       </c>
       <c r="AQ85" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:32:33-03:00</t>
+    <t>2025-03-24T16:25:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Referencia de Documentos: V 0.43</t>
+    <t>Referencia de Documentos</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:25:06-03:00</t>
+    <t>2025-03-25T08:49:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T08:49:07-03:00</t>
+    <t>2025-04-08T14:01:09-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T14:01:09-03:00</t>
+    <t>2025-04-08T16:57:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08T16:57:34-03:00</t>
+    <t>2025-04-10T19:36:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T19:36:54-03:00</t>
+    <t>2025-04-11T11:36:21-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
+++ b/docs/v043/StructureDefinition-DocumentReferenceCo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:36:21-03:00</t>
+    <t>2025-04-11T11:51:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
